--- a/Fast Food Analysis Project Spreadsheet.xlsx
+++ b/Fast Food Analysis Project Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikayla/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF53322A-7271-2848-9F93-CFC577E3F207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{444F48FB-62BB-0F49-96F1-D4ACDD5AFED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4F930734-81F3-FE4A-B39F-6E56A68CD5CB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="71">
   <si>
     <t>Restaurant</t>
   </si>
@@ -231,6 +231,24 @@
   </si>
   <si>
     <t>5 Chicken Fingerz</t>
+  </si>
+  <si>
+    <t>Item Type</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Entrée</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>Desert</t>
+  </si>
+  <si>
+    <t>Drink</t>
   </si>
 </sst>
 </file>
@@ -606,23 +624,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89212BF2-BC9F-AB4F-8BDD-25E4DF268124}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -656,8 +681,11 @@
       <c r="L1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -691,8 +719,11 @@
       <c r="L2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -726,8 +757,11 @@
       <c r="L3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -761,8 +795,11 @@
       <c r="L4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -796,8 +833,11 @@
       <c r="L5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -831,8 +871,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -866,8 +909,11 @@
       <c r="L7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -901,8 +947,11 @@
       <c r="L8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -936,8 +985,11 @@
       <c r="L9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -971,8 +1023,11 @@
       <c r="L10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -1006,8 +1061,11 @@
       <c r="L11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -1041,8 +1099,11 @@
       <c r="L12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -1076,8 +1137,11 @@
       <c r="L13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -1111,8 +1175,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1146,8 +1213,11 @@
       <c r="L15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -1181,8 +1251,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -1216,8 +1289,11 @@
       <c r="L17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -1251,8 +1327,11 @@
       <c r="L18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -1286,8 +1365,11 @@
       <c r="L19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>20</v>
       </c>
@@ -1321,8 +1403,11 @@
       <c r="L20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>32</v>
       </c>
@@ -1356,8 +1441,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>32</v>
       </c>
@@ -1391,8 +1479,11 @@
       <c r="L22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>32</v>
       </c>
@@ -1426,8 +1517,11 @@
       <c r="L23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1555,11 @@
       <c r="L24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1593,11 @@
       <c r="L25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -1531,8 +1631,11 @@
       <c r="L26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>32</v>
       </c>
@@ -1566,8 +1669,11 @@
       <c r="L27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>32</v>
       </c>
@@ -1601,8 +1707,11 @@
       <c r="L28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>32</v>
       </c>
@@ -1636,8 +1745,11 @@
       <c r="L29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>32</v>
       </c>
@@ -1671,8 +1783,11 @@
       <c r="L30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>33</v>
       </c>
@@ -1706,8 +1821,11 @@
       <c r="L31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>33</v>
       </c>
@@ -1741,8 +1859,11 @@
       <c r="L32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>33</v>
       </c>
@@ -1776,8 +1897,11 @@
       <c r="L33">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>33</v>
       </c>
@@ -1811,8 +1935,11 @@
       <c r="L34">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -1846,8 +1973,11 @@
       <c r="L35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -1881,8 +2011,11 @@
       <c r="L36">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>33</v>
       </c>
@@ -1916,8 +2049,11 @@
       <c r="L37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>33</v>
       </c>
@@ -1951,8 +2087,11 @@
       <c r="L38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>33</v>
       </c>
@@ -1986,8 +2125,11 @@
       <c r="L39">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>33</v>
       </c>
@@ -2021,8 +2163,11 @@
       <c r="L40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>54</v>
       </c>
@@ -2056,8 +2201,11 @@
       <c r="L41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>54</v>
       </c>
@@ -2091,8 +2239,11 @@
       <c r="L42">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>54</v>
       </c>
@@ -2126,8 +2277,11 @@
       <c r="L43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>54</v>
       </c>
@@ -2161,8 +2315,11 @@
       <c r="L44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>54</v>
       </c>
@@ -2196,8 +2353,11 @@
       <c r="L45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>54</v>
       </c>
@@ -2231,8 +2391,11 @@
       <c r="L46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>54</v>
       </c>
@@ -2266,8 +2429,11 @@
       <c r="L47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>54</v>
       </c>
@@ -2301,8 +2467,11 @@
       <c r="L48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>54</v>
       </c>
@@ -2336,8 +2505,11 @@
       <c r="L49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>54</v>
       </c>
@@ -2371,8 +2543,16 @@
       <c r="L50">
         <v>0</v>
       </c>
+      <c r="M50" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{32B15475-5943-2940-8FF5-5576A59466E1}">
+      <formula1>"Breakfast, Entrée, Desert, Drink, Side"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>